--- a/Warehouse/Resources/Receipt.xlsx
+++ b/Warehouse/Resources/Receipt.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Производственная практика\Warehouse\Warehouse\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E8849-71D1-4A2A-8002-FFB1D2F5CF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E8AF01-26C0-47CB-A6DB-4D7B86AD8C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Выбытие" sheetId="4" r:id="rId1"/>
-    <sheet name="Поступление" sheetId="5" r:id="rId4"/>
+    <sheet name="Поступление" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
@@ -26,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Реестр документов по выбытию</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Реестр документов по поступлению</t>
   </si>
   <si>
     <t>Период: 2023-10-01 - 2023-10-31</t>
@@ -37,6 +36,9 @@
     <t>ОАО Гомельский Мясокомбинат</t>
   </si>
   <si>
+    <t>Главный склад</t>
+  </si>
+  <si>
     <t>Адрес: Гомель, ул. Ильича, 2</t>
   </si>
   <si>
@@ -58,37 +60,16 @@
     <t>Тип</t>
   </si>
   <si>
-    <t>Товары</t>
-  </si>
-  <si>
-    <t>30004</t>
-  </si>
-  <si>
-    <t>Тестик</t>
+    <t>Продукты</t>
+  </si>
+  <si>
+    <t>40002</t>
+  </si>
+  <si>
+    <t>Нетушки</t>
   </si>
   <si>
     <t>лебенков</t>
-  </si>
-  <si>
-    <t>249000</t>
-  </si>
-  <si>
-    <t>26.10.2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Выбытие</t>
-  </si>
-  <si>
-    <t>Магма</t>
-  </si>
-  <si>
-    <t>Реестр документов по поступлению</t>
-  </si>
-  <si>
-    <t>40002</t>
-  </si>
-  <si>
-    <t>Нетушки</t>
   </si>
   <si>
     <t>157500</t>
@@ -146,27 +127,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -180,11 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,13 +156,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -478,188 +435,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6825FA-D2EE-43FC-8D8E-0BD3AB8F088A}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1" style="2"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="11.140625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1" style="2"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1" style="2"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,196 +452,219 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -874,6 +674,7 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageSetup orientation="landscape"/>
   <headerFooter/>

--- a/Warehouse/Resources/Receipt.xlsx
+++ b/Warehouse/Resources/Receipt.xlsx
@@ -25,12 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Реестр документов по поступлению</t>
   </si>
   <si>
-    <t>Период: 2023-10-01 - 2023-10-31</t>
+    <t>Период: 2023-11-01 - 2023-11-30</t>
   </si>
   <si>
     <t>ОАО Гомельский Мясокомбинат</t>
@@ -63,46 +63,25 @@
     <t>Продукты</t>
   </si>
   <si>
-    <t>40002</t>
-  </si>
-  <si>
-    <t>Нетушки</t>
+    <t>70004</t>
+  </si>
+  <si>
+    <t>Сбербанк</t>
   </si>
   <si>
     <t>лебенков</t>
   </si>
   <si>
-    <t>157500</t>
-  </si>
-  <si>
-    <t>27.10.2023 00:00:00</t>
+    <t>11300</t>
+  </si>
+  <si>
+    <t>01.11.2023 00:00:00</t>
   </si>
   <si>
     <t>Поступление</t>
   </si>
   <si>
-    <t>Тесто, Новое, Магма</t>
-  </si>
-  <si>
-    <t>40003</t>
-  </si>
-  <si>
-    <t>18500</t>
-  </si>
-  <si>
-    <t>Тесто, Новое</t>
-  </si>
-  <si>
-    <t>50002</t>
-  </si>
-  <si>
-    <t>193025</t>
-  </si>
-  <si>
-    <t>28.10.2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Новое, Тесто, Магма</t>
+    <t>Докторская, Волковыское</t>
   </si>
 </sst>
 </file>
@@ -436,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,7 +427,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
     <col min="5" max="5" width="19.4565015520368" customWidth="1" style="1"/>
     <col min="6" max="6" width="13.309924534389" customWidth="1" style="1"/>
-    <col min="7" max="7" width="20.322014944894" customWidth="1" style="1"/>
+    <col min="7" max="7" width="25.1897583007813" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -619,52 +598,6 @@
       </c>
       <c r="G8" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Warehouse/Resources/Receipt.xlsx
+++ b/Warehouse/Resources/Receipt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Реестр документов по поступлению</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Продукты</t>
   </si>
   <si>
-    <t>70004</t>
+    <t>80002</t>
   </si>
   <si>
     <t>Сбербанк</t>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Докторская, Волковыское</t>
+  </si>
+  <si>
+    <t>80004</t>
+  </si>
+  <si>
+    <t>14701</t>
+  </si>
+  <si>
+    <t>Волковыское, Докторская</t>
+  </si>
+  <si>
+    <t>Составил: _______________</t>
   </si>
 </sst>
 </file>
@@ -128,10 +140,10 @@
   <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -415,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -545,15 +557,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>5</v>
@@ -598,6 +601,34 @@
       </c>
       <c r="G8" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
